--- a/TeamData/2022-23/10-19-2022-23.xlsx
+++ b/TeamData/2022-23/10-19-2022-23.xlsx
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
         <v>25</v>
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>5</v>
@@ -1790,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB7" t="n">
         <v>25</v>
@@ -2258,7 +2258,7 @@
         <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB10" t="n">
         <v>113</v>
@@ -2336,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
         <v>13</v>
@@ -3064,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="BA14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB14" t="n">
         <v>15</v>
@@ -3425,7 +3425,7 @@
         <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
         <v>2</v>
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -4335,7 +4335,7 @@
         <v>8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
         <v>15</v>
@@ -4442,7 +4442,7 @@
         <v>25</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
         <v>117</v>
@@ -4520,7 +4520,7 @@
         <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB22" t="n">
         <v>6</v>
@@ -5612,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
